--- a/4 - Plots/All_Graphs/MI_AllFactors.xlsx
+++ b/4 - Plots/All_Graphs/MI_AllFactors.xlsx
@@ -116,22 +116,22 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
   </si>
   <si>
     <t xml:space="preserve">Base PC</t>
